--- a/www/mesures/3.0.0/StructureDefinition-mes-reason-for-measurement.xlsx
+++ b/www/mesures/3.0.0/StructureDefinition-mes-reason-for-measurement.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-16T15:26:47+01:00</t>
+    <t>2023-03-22T16:32:25+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1100,7 +1100,7 @@
         <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>94</v>
@@ -1308,7 +1308,7 @@
         <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>104</v>
